--- a/Sprawozdanie 3/Excel.xlsx
+++ b/Sprawozdanie 3/Excel.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Miedz" sheetId="1" r:id="rId1"/>
+    <sheet name="Aluminium" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>Nr harmonicznej</t>
   </si>
@@ -462,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,6 +497,10 @@
         <f>3.6/A2</f>
         <v>3.6</v>
       </c>
+      <c r="D2" s="1">
+        <f>C2*B2</f>
+        <v>4248</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -509,10 +514,14 @@
         <f t="shared" ref="C3:C7" si="0">3.6/A3</f>
         <v>1.8</v>
       </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D7" si="1">C3*B3</f>
+        <v>3888</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A7" si="1">A3+1</f>
+        <f t="shared" ref="A4:A7" si="2">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="1">
@@ -522,10 +531,14 @@
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
+      <c r="D4" s="1">
+        <f t="shared" si="1"/>
+        <v>3888</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B5" s="1">
@@ -535,10 +548,14 @@
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
+      <c r="D5" s="1">
+        <f t="shared" si="1"/>
+        <v>3852</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B6" s="1">
@@ -548,10 +565,14 @@
         <f t="shared" si="0"/>
         <v>0.72</v>
       </c>
+      <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>3787.2</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B7" s="1">
@@ -560,10 +581,147 @@
       <c r="C7" s="3">
         <f t="shared" si="0"/>
         <v>0.6</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>3720</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C13:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2435</v>
+      </c>
+      <c r="C2" s="3">
+        <f>1.98/A2</f>
+        <v>1.98</v>
+      </c>
+      <c r="D2" s="1">
+        <f>C2*B2</f>
+        <v>4821.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4970</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C7" si="0">1.98/A3</f>
+        <v>0.99</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D7" si="1">C3*B3</f>
+        <v>4920.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A7" si="2">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>6842</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.66</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="1"/>
+        <v>4515.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>9560</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.495</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="1"/>
+        <v>4732.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>11340</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>4490.6400000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>12370</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.33</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>4082.1000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Sprawozdanie 3/Excel.xlsx
+++ b/Sprawozdanie 3/Excel.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Miedz" sheetId="1" r:id="rId1"/>
+    <sheet name="Miedź" sheetId="1" r:id="rId1"/>
     <sheet name="Aluminium" sheetId="2" r:id="rId2"/>
+    <sheet name="Mosiądz" sheetId="3" r:id="rId3"/>
+    <sheet name="Stal" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
   <si>
     <t>Nr harmonicznej</t>
   </si>
@@ -463,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="A1:D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C13:C14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,4 +726,270 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1690</v>
+      </c>
+      <c r="C2" s="3">
+        <f>1.98/A2</f>
+        <v>1.98</v>
+      </c>
+      <c r="D2" s="1">
+        <f>C2*B2</f>
+        <v>3346.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3470</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C7" si="0">1.98/A3</f>
+        <v>0.99</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D7" si="1">C3*B3</f>
+        <v>3435.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A7" si="2">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5160</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.66</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="1"/>
+        <v>3405.6000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6840</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.495</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="1"/>
+        <v>3385.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8630</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>3417.48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>12000</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.33</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>3960</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1410</v>
+      </c>
+      <c r="C2" s="3">
+        <f>3.6/A2</f>
+        <v>3.6</v>
+      </c>
+      <c r="D2" s="1">
+        <f>C2*B2</f>
+        <v>5076</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2900</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C7" si="0">3.6/A3</f>
+        <v>1.8</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D7" si="1">C3*B3</f>
+        <v>5220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A7" si="2">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4310</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="1"/>
+        <v>5172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5720</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="1"/>
+        <v>5148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>7120</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.72</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>5126.3999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>8600</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>5160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Sprawozdanie 3/Excel.xlsx
+++ b/Sprawozdanie 3/Excel.xlsx
@@ -7,7 +7,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Miedz" sheetId="1" r:id="rId1"/>
+    <sheet name="Miedź" sheetId="1" r:id="rId1"/>
+    <sheet name="Aluminium" sheetId="2" r:id="rId2"/>
+    <sheet name="Mosiądz" sheetId="3" r:id="rId3"/>
+    <sheet name="Stal" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
   <si>
     <t>Nr harmonicznej</t>
   </si>
@@ -463,7 +466,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,6 +499,10 @@
         <f>3.6/A2</f>
         <v>3.6</v>
       </c>
+      <c r="D2" s="1">
+        <f>C2*B2</f>
+        <v>4248</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -509,10 +516,14 @@
         <f t="shared" ref="C3:C7" si="0">3.6/A3</f>
         <v>1.8</v>
       </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D7" si="1">C3*B3</f>
+        <v>3888</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A7" si="1">A3+1</f>
+        <f t="shared" ref="A4:A7" si="2">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="1">
@@ -522,10 +533,14 @@
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
+      <c r="D4" s="1">
+        <f t="shared" si="1"/>
+        <v>3888</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B5" s="1">
@@ -535,10 +550,14 @@
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
+      <c r="D5" s="1">
+        <f t="shared" si="1"/>
+        <v>3852</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B6" s="1">
@@ -548,10 +567,14 @@
         <f t="shared" si="0"/>
         <v>0.72</v>
       </c>
+      <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>3787.2</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B7" s="1">
@@ -560,10 +583,413 @@
       <c r="C7" s="3">
         <f t="shared" si="0"/>
         <v>0.6</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>3720</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2435</v>
+      </c>
+      <c r="C2" s="3">
+        <f>1.98/A2</f>
+        <v>1.98</v>
+      </c>
+      <c r="D2" s="1">
+        <f>C2*B2</f>
+        <v>4821.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4970</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C7" si="0">1.98/A3</f>
+        <v>0.99</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D7" si="1">C3*B3</f>
+        <v>4920.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A7" si="2">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>6842</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.66</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="1"/>
+        <v>4515.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>9560</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.495</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="1"/>
+        <v>4732.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>11340</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>4490.6400000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>12370</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.33</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>4082.1000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1690</v>
+      </c>
+      <c r="C2" s="3">
+        <f>1.98/A2</f>
+        <v>1.98</v>
+      </c>
+      <c r="D2" s="1">
+        <f>C2*B2</f>
+        <v>3346.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3470</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C7" si="0">1.98/A3</f>
+        <v>0.99</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D7" si="1">C3*B3</f>
+        <v>3435.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A7" si="2">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5160</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.66</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="1"/>
+        <v>3405.6000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6840</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.495</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="1"/>
+        <v>3385.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8630</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>3417.48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>12000</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.33</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>3960</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1410</v>
+      </c>
+      <c r="C2" s="3">
+        <f>3.6/A2</f>
+        <v>3.6</v>
+      </c>
+      <c r="D2" s="1">
+        <f>C2*B2</f>
+        <v>5076</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2900</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C7" si="0">3.6/A3</f>
+        <v>1.8</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D7" si="1">C3*B3</f>
+        <v>5220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A7" si="2">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4310</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="1"/>
+        <v>5172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5720</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="1"/>
+        <v>5148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>7120</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.72</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>5126.3999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>8600</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>5160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Sprawozdanie 3/Excel.xlsx
+++ b/Sprawozdanie 3/Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Miedź" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="19">
   <si>
     <t>Nr harmonicznej</t>
   </si>
@@ -107,12 +107,57 @@
       <t>[m/s]</t>
     </r>
   </si>
+  <si>
+    <t>Średnia prędkość fali</t>
+  </si>
+  <si>
+    <t>błąd bezwzględny</t>
+  </si>
+  <si>
+    <t>Sp</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>l [m]</t>
+  </si>
+  <si>
+    <t>d [m]</t>
+  </si>
+  <si>
+    <t>dw [m]</t>
+  </si>
+  <si>
+    <t>m [kg]</t>
+  </si>
+  <si>
+    <t>ro</t>
+  </si>
+  <si>
+    <t>h [m]</t>
+  </si>
+  <si>
+    <t>Pp</t>
+  </si>
+  <si>
+    <t>a [m]</t>
+  </si>
+  <si>
+    <t>b [m]</t>
+  </si>
+  <si>
+    <t>c [m]</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +196,13 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -172,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -183,6 +235,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -463,18 +519,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="15.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -487,8 +547,35 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -499,12 +586,44 @@
         <f>3.6/A2</f>
         <v>3.6</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <f>C2*B2</f>
         <v>4248</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f>AVERAGE(D3:D7)</f>
+        <v>3827.04</v>
+      </c>
+      <c r="G2">
+        <f>ABS(D2-$F$2)</f>
+        <v>420.96000000000004</v>
+      </c>
+      <c r="I2">
+        <v>1.52E-2</v>
+      </c>
+      <c r="J2">
+        <v>1.7950000000000001E-2</v>
+      </c>
+      <c r="K2" s="5">
+        <v>1.8009999999999999</v>
+      </c>
+      <c r="L2">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="M2">
+        <f>(PI()/4)*((J2^2)-(I2^2))</f>
+        <v>7.1598860070719872E-5</v>
+      </c>
+      <c r="N2">
+        <f>M2*K2</f>
+        <v>1.2894954698736648E-4</v>
+      </c>
+      <c r="O2">
+        <f>L2/N2</f>
+        <v>5901.5329466380917</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>2</v>
@@ -520,10 +639,14 @@
         <f t="shared" ref="D3:D7" si="1">C3*B3</f>
         <v>3888</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <f t="shared" ref="G3:G7" si="2">ABS(D3-$F$2)</f>
+        <v>60.960000000000036</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A7" si="2">A3+1</f>
+        <f t="shared" ref="A4:A7" si="3">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="1">
@@ -537,10 +660,14 @@
         <f t="shared" si="1"/>
         <v>3888</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>60.960000000000036</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B5" s="1">
@@ -554,10 +681,17 @@
         <f t="shared" si="1"/>
         <v>3852</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>24.960000000000036</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B6" s="1">
@@ -571,10 +705,18 @@
         <f t="shared" si="1"/>
         <v>3787.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>39.840000000000146</v>
+      </c>
+      <c r="J6">
+        <f>O2*F2^2</f>
+        <v>86435239350.391678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B7" s="1">
@@ -587,6 +729,10 @@
       <c r="D7" s="1">
         <f t="shared" si="1"/>
         <v>3720</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>107.03999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -597,18 +743,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D7"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="12" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -621,8 +770,32 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -637,8 +810,37 @@
         <f>C2*B2</f>
         <v>4821.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f>AVERAGE(D2:D6)</f>
+        <v>4696.0320000000002</v>
+      </c>
+      <c r="G2">
+        <f>ABS(D2-$F$2)</f>
+        <v>125.26800000000003</v>
+      </c>
+      <c r="I2">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="J2">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="K2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="L2">
+        <f>(PI()/4)*J2^2</f>
+        <v>1.8857409903172734E-5</v>
+      </c>
+      <c r="M2">
+        <f>I2*L2</f>
+        <v>6.3926619571755575E-6</v>
+      </c>
+      <c r="N2">
+        <f>K2/M2</f>
+        <v>3754.3045699547388</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>2</v>
@@ -654,10 +856,14 @@
         <f t="shared" ref="D3:D7" si="1">C3*B3</f>
         <v>4920.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <f t="shared" ref="G3:G7" si="2">ABS(D3-$F$2)</f>
+        <v>224.26800000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A7" si="2">A3+1</f>
+        <f t="shared" ref="A4:A7" si="3">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="1">
@@ -671,10 +877,14 @@
         <f t="shared" si="1"/>
         <v>4515.72</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>180.3119999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B5" s="1">
@@ -688,10 +898,17 @@
         <f t="shared" si="1"/>
         <v>4732.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>36.167999999999665</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B6" s="1">
@@ -705,10 +922,18 @@
         <f t="shared" si="1"/>
         <v>4490.6400000000003</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>205.39199999999983</v>
+      </c>
+      <c r="J6">
+        <f>N2*F2^2</f>
+        <v>82792614504.900085</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B7" s="1">
@@ -718,9 +943,13 @@
         <f t="shared" si="0"/>
         <v>0.33</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <f t="shared" si="1"/>
         <v>4082.1000000000004</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>613.93199999999979</v>
       </c>
     </row>
   </sheetData>
@@ -730,18 +959,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -754,8 +985,32 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -770,8 +1025,37 @@
         <f>C2*B2</f>
         <v>3346.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f>AVERAGE(D2:D6)</f>
+        <v>3398.076</v>
+      </c>
+      <c r="G2">
+        <f>ABS(D2-$F$2)</f>
+        <v>51.876000000000204</v>
+      </c>
+      <c r="I2">
+        <v>0.311</v>
+      </c>
+      <c r="J2">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="K2">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="L2">
+        <f>(PI()/4)*J2^2</f>
+        <v>2.7339710067865173E-5</v>
+      </c>
+      <c r="M2">
+        <f>I2*L2</f>
+        <v>8.5026498311060694E-6</v>
+      </c>
+      <c r="N2">
+        <f>K2/M2</f>
+        <v>8703.1691848908813</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>2</v>
@@ -787,10 +1071,14 @@
         <f t="shared" ref="D3:D7" si="1">C3*B3</f>
         <v>3435.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <f t="shared" ref="G3:G7" si="2">ABS(D3-$F$2)</f>
+        <v>37.22400000000016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A7" si="2">A3+1</f>
+        <f t="shared" ref="A4:A7" si="3">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="1">
@@ -804,10 +1092,14 @@
         <f t="shared" si="1"/>
         <v>3405.6000000000004</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>7.524000000000342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B5" s="1">
@@ -821,10 +1113,17 @@
         <f t="shared" si="1"/>
         <v>3385.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>12.27599999999984</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B6" s="1">
@@ -838,10 +1137,18 @@
         <f t="shared" si="1"/>
         <v>3417.48</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>19.403999999999996</v>
+      </c>
+      <c r="J6">
+        <f>N2*F2^2</f>
+        <v>100494802691.44164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B7" s="1">
@@ -851,9 +1158,13 @@
         <f t="shared" si="0"/>
         <v>0.33</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <f t="shared" si="1"/>
         <v>3960</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>561.92399999999998</v>
       </c>
     </row>
   </sheetData>
@@ -863,18 +1174,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -887,8 +1201,32 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -903,8 +1241,36 @@
         <f>C2*B2</f>
         <v>5076</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f>SUM(D2:D7)/A7</f>
+        <v>5150.4000000000005</v>
+      </c>
+      <c r="G2">
+        <f>ABS(D2-$F$2)</f>
+        <v>74.400000000000546</v>
+      </c>
+      <c r="I2">
+        <v>1.9E-2</v>
+      </c>
+      <c r="J2">
+        <v>1.41E-2</v>
+      </c>
+      <c r="K2">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="L2">
+        <v>3.1859999999999999E-2</v>
+      </c>
+      <c r="M2">
+        <f>I2*J2*K2</f>
+        <v>3.8041800000000002E-6</v>
+      </c>
+      <c r="N2">
+        <f>L2/M2</f>
+        <v>8374.9980284844551</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>2</v>
@@ -920,10 +1286,14 @@
         <f t="shared" ref="D3:D7" si="1">C3*B3</f>
         <v>5220</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <f t="shared" ref="G3:G7" si="2">ABS(D3-$F$2)</f>
+        <v>69.599999999999454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A7" si="2">A3+1</f>
+        <f t="shared" ref="A4:A7" si="3">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="1">
@@ -937,10 +1307,14 @@
         <f t="shared" si="1"/>
         <v>5172</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>21.599999999999454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B5" s="1">
@@ -954,10 +1328,17 @@
         <f t="shared" si="1"/>
         <v>5148</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>2.4000000000005457</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B6" s="1">
@@ -971,10 +1352,18 @@
         <f t="shared" si="1"/>
         <v>5126.3999999999996</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>24.000000000000909</v>
+      </c>
+      <c r="J6">
+        <f>N2*F2^2</f>
+        <v>222160391542.35602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B7" s="1">
@@ -987,6 +1376,10 @@
       <c r="D7" s="1">
         <f t="shared" si="1"/>
         <v>5160</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>9.5999999999994543</v>
       </c>
     </row>
   </sheetData>

--- a/Sprawozdanie 3/Excel.xlsx
+++ b/Sprawozdanie 3/Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Miedź" sheetId="1" r:id="rId1"/>
@@ -521,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,7 +579,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="4">
         <v>1180</v>
       </c>
       <c r="C2" s="3">
@@ -746,7 +746,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,7 +936,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="4">
         <v>12370</v>
       </c>
       <c r="C7" s="3">
@@ -961,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1151,7 +1151,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="4">
         <v>12000</v>
       </c>
       <c r="C7" s="3">

--- a/Sprawozdanie 3/Excel.xlsx
+++ b/Sprawozdanie 3/Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Miedź" sheetId="1" r:id="rId1"/>
@@ -521,7 +521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1176,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,7 +1259,7 @@
         <v>1.4200000000000001E-2</v>
       </c>
       <c r="L2">
-        <v>3.1859999999999999E-2</v>
+        <v>3.0859999999999999E-2</v>
       </c>
       <c r="M2">
         <f>I2*J2*K2</f>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="N2">
         <f>L2/M2</f>
-        <v>8374.9980284844551</v>
+        <v>8112.1292893606496</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="J6">
         <f>N2*F2^2</f>
-        <v>222160391542.35602</v>
+        <v>215187372347.68073</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">

--- a/Sprawozdanie 3/Excel.xlsx
+++ b/Sprawozdanie 3/Excel.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
   <si>
     <t>Nr harmonicznej</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Young</t>
+  </si>
+  <si>
+    <t>zmiana</t>
   </si>
 </sst>
 </file>
@@ -1174,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1382,6 +1385,11 @@
         <v>9.5999999999994543</v>
       </c>
     </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sprawozdanie 3/Excel.xlsx
+++ b/Sprawozdanie 3/Excel.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="21">
   <si>
     <t>Nr harmonicznej</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>Young</t>
+  </si>
+  <si>
+    <t>zmiana</t>
+  </si>
+  <si>
+    <t>zmiana 2</t>
   </si>
 </sst>
 </file>
@@ -1174,10 +1180,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,7 +1194,7 @@
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1226,7 +1232,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1270,7 +1276,7 @@
         <v>8112.1292893606496</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>2</v>
@@ -1291,7 +1297,7 @@
         <v>69.599999999999454</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A7" si="3">A3+1</f>
         <v>3</v>
@@ -1312,7 +1318,7 @@
         <v>21.599999999999454</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -1336,7 +1342,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -1361,7 +1367,7 @@
         <v>215187372347.68073</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -1380,6 +1386,14 @@
       <c r="G7">
         <f t="shared" si="2"/>
         <v>9.5999999999994543</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Sprawozdanie 3/Excel.xlsx
+++ b/Sprawozdanie 3/Excel.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="19">
   <si>
     <t>Nr harmonicznej</t>
   </si>
@@ -151,12 +151,6 @@
   </si>
   <si>
     <t>Young</t>
-  </si>
-  <si>
-    <t>zmiana</t>
-  </si>
-  <si>
-    <t>zmiana 2</t>
   </si>
 </sst>
 </file>
@@ -1180,10 +1174,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,7 +1188,7 @@
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1232,7 +1226,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1276,7 +1270,7 @@
         <v>8112.1292893606496</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>2</v>
@@ -1297,7 +1291,7 @@
         <v>69.599999999999454</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A7" si="3">A3+1</f>
         <v>3</v>
@@ -1318,7 +1312,7 @@
         <v>21.599999999999454</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -1342,7 +1336,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -1367,7 +1361,7 @@
         <v>215187372347.68073</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -1386,14 +1380,6 @@
       <c r="G7">
         <f t="shared" si="2"/>
         <v>9.5999999999994543</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N16" t="s">
-        <v>19</v>
-      </c>
-      <c r="O16" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Sprawozdanie 3/Excel.xlsx
+++ b/Sprawozdanie 3/Excel.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="32">
   <si>
     <t>Nr harmonicznej</t>
   </si>
@@ -147,10 +147,49 @@
     <t>b [m]</t>
   </si>
   <si>
-    <t>c [m]</t>
-  </si>
-  <si>
     <t>Young</t>
+  </si>
+  <si>
+    <t>Niepewnosci</t>
+  </si>
+  <si>
+    <t>u(dw)</t>
+  </si>
+  <si>
+    <t>u(d)</t>
+  </si>
+  <si>
+    <t>u(l)</t>
+  </si>
+  <si>
+    <t>u(m)</t>
+  </si>
+  <si>
+    <t>u(f)</t>
+  </si>
+  <si>
+    <t>u(lambda)</t>
+  </si>
+  <si>
+    <t>ucPp</t>
+  </si>
+  <si>
+    <t>ucV</t>
+  </si>
+  <si>
+    <t>ucRho</t>
+  </si>
+  <si>
+    <t>ucv</t>
+  </si>
+  <si>
+    <t>u(h)</t>
+  </si>
+  <si>
+    <t>u(a)</t>
+  </si>
+  <si>
+    <t>u(b)</t>
   </si>
 </sst>
 </file>
@@ -224,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -239,6 +278,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -519,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A10" sqref="A10:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,7 +728,7 @@
         <v>24.960000000000036</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -733,6 +775,91 @@
       <c r="G7">
         <f t="shared" si="2"/>
         <v>107.03999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <f>AVERAGE(A2:A7)</f>
+        <v>3.5</v>
+      </c>
+      <c r="C8" s="3">
+        <f>AVERAGE(C2:C7)</f>
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>20</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <f>SQRT( ( ( PI() / 2 ) * J2 * C11 )^2 + ( ( (PI() / 2) * I2 *B11 ) ^2))</f>
+        <v>1.8473434664521779E-6</v>
+      </c>
+      <c r="B14" s="1">
+        <f>SQRT( ( M2 * D11 )^2 +  ( K2 * A14 )^2 )</f>
+        <v>3.3278359020362413E-6</v>
+      </c>
+      <c r="C14" s="1">
+        <f>SQRT( ( ( -L2 / N2^2 ) * B14 )^2 + ( ( 1 / N2 ) * E11 )^2 )</f>
+        <v>152.4997668369445</v>
+      </c>
+      <c r="D14" s="1">
+        <f>SQRT( (  1)^2 + ( 1 )^2 )</f>
+        <v>1.4142135623730951</v>
       </c>
     </row>
   </sheetData>
@@ -743,10 +870,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,7 +927,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>2435</v>
+        <v>2440</v>
       </c>
       <c r="C2" s="3">
         <f>1.98/A2</f>
@@ -808,24 +935,24 @@
       </c>
       <c r="D2" s="1">
         <f>C2*B2</f>
-        <v>4821.3</v>
+        <v>4831.2</v>
       </c>
       <c r="F2">
         <f>AVERAGE(D2:D6)</f>
-        <v>4696.0320000000002</v>
+        <v>4695.768</v>
       </c>
       <c r="G2">
         <f>ABS(D2-$F$2)</f>
-        <v>125.26800000000003</v>
+        <v>135.43199999999979</v>
       </c>
       <c r="I2">
-        <v>0.33900000000000002</v>
+        <v>0.439</v>
       </c>
       <c r="J2">
         <v>4.8999999999999998E-3</v>
       </c>
       <c r="K2">
-        <v>2.4E-2</v>
+        <v>2.3890999999999999E-2</v>
       </c>
       <c r="L2">
         <f>(PI()/4)*J2^2</f>
@@ -833,11 +960,11 @@
       </c>
       <c r="M2">
         <f>I2*L2</f>
-        <v>6.3926619571755575E-6</v>
+        <v>8.2784029474928309E-6</v>
       </c>
       <c r="N2">
         <f>K2/M2</f>
-        <v>3754.3045699547388</v>
+        <v>2885.9431162668334</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -846,7 +973,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>4970</v>
+        <v>4960</v>
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:C7" si="0">1.98/A3</f>
@@ -854,11 +981,11 @@
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D7" si="1">C3*B3</f>
-        <v>4920.3</v>
+        <v>4910.3999999999996</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G7" si="2">ABS(D3-$F$2)</f>
-        <v>224.26800000000003</v>
+        <v>214.63199999999961</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -867,7 +994,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>6842</v>
+        <v>6840</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" si="0"/>
@@ -875,11 +1002,11 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" si="1"/>
-        <v>4515.72</v>
+        <v>4514.4000000000005</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>180.3119999999999</v>
+        <v>181.36799999999948</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -900,10 +1027,10 @@
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>36.167999999999665</v>
+        <v>36.431999999999789</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -924,11 +1051,11 @@
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>205.39199999999983</v>
+        <v>205.1279999999997</v>
       </c>
       <c r="J6">
         <f>N2*F2^2</f>
-        <v>82792614504.900085</v>
+        <v>63635729999.148056</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -937,7 +1064,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>12370</v>
+        <v>12360</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" si="0"/>
@@ -945,11 +1072,89 @@
       </c>
       <c r="D7" s="4">
         <f t="shared" si="1"/>
-        <v>4082.1000000000004</v>
+        <v>4078.8</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>613.93199999999979</v>
+        <v>616.96799999999985</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
+        <v>20</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <f>SQRT( ( ( PI() / 2 ) * J2 * C11 )^2 )</f>
+        <v>3.8484510006474966E-7</v>
+      </c>
+      <c r="B14" s="1">
+        <f>SQRT( ( L2 * B11 )^2 +  ( I2 * A14 )^2 )</f>
+        <v>1.6999614805982384E-7</v>
+      </c>
+      <c r="C14" s="1">
+        <f>SQRT( ( ( -K2 / M2^2 ) * B14 )^2 + ( ( 1 / M2 ) * D11 )^2 )</f>
+        <v>59.262666429458498</v>
+      </c>
+      <c r="D14" s="1">
+        <f>SQRT( (  1)^2 + ( 1 )^2 )</f>
+        <v>1.4142135623730951</v>
       </c>
     </row>
   </sheetData>
@@ -959,10 +1164,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,11 +1232,11 @@
       </c>
       <c r="F2">
         <f>AVERAGE(D2:D6)</f>
-        <v>3398.076</v>
+        <v>3395.3040000000001</v>
       </c>
       <c r="G2">
         <f>ABS(D2-$F$2)</f>
-        <v>51.876000000000204</v>
+        <v>49.104000000000269</v>
       </c>
       <c r="I2">
         <v>0.311</v>
@@ -1061,7 +1266,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>3470</v>
+        <v>3460</v>
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:C7" si="0">1.98/A3</f>
@@ -1069,11 +1274,11 @@
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D7" si="1">C3*B3</f>
-        <v>3435.3</v>
+        <v>3425.4</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G7" si="2">ABS(D3-$F$2)</f>
-        <v>37.22400000000016</v>
+        <v>30.096000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1094,7 +1299,7 @@
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>7.524000000000342</v>
+        <v>10.296000000000276</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1115,10 +1320,10 @@
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>12.27599999999984</v>
+        <v>9.5039999999999054</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1127,7 +1332,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>8630</v>
+        <v>8620</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" si="0"/>
@@ -1135,15 +1340,15 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>3417.48</v>
+        <v>3413.52</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>19.403999999999996</v>
+        <v>18.215999999999894</v>
       </c>
       <c r="J6">
         <f>N2*F2^2</f>
-        <v>100494802691.44164</v>
+        <v>100330911142.29869</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1164,7 +1369,85 @@
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>561.92399999999998</v>
+        <v>564.69599999999991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
+        <v>20</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <f>SQRT( ( ( PI() / 2 ) * J2 * C11 )^2 )</f>
+        <v>4.633849164044945E-7</v>
+      </c>
+      <c r="B14" s="1">
+        <f>SQRT( ( L2 * B11 )^2 +  ( I2 * A14 )^2 )</f>
+        <v>1.4668310278430769E-7</v>
+      </c>
+      <c r="C14" s="1">
+        <f>SQRT( ( ( -K2 / M2^2 ) * B14 )^2 + ( ( 1 / M2 ) * D11 )^2 )</f>
+        <v>190.72213113758932</v>
+      </c>
+      <c r="D14" s="1">
+        <f>SQRT( (  1)^2 + ( 1 )^2 )</f>
+        <v>1.4142135623730951</v>
       </c>
     </row>
   </sheetData>
@@ -1174,10 +1457,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,7 +1471,7 @@
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1208,13 +1491,13 @@
         <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>11</v>
@@ -1225,13 +1508,16 @@
       <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1410</v>
+        <v>1420</v>
       </c>
       <c r="C2" s="3">
         <f>3.6/A2</f>
@@ -1239,15 +1525,15 @@
       </c>
       <c r="D2" s="1">
         <f>C2*B2</f>
-        <v>5076</v>
+        <v>5112</v>
       </c>
       <c r="F2">
         <f>SUM(D2:D7)/A7</f>
-        <v>5150.4000000000005</v>
+        <v>5154.4000000000005</v>
       </c>
       <c r="G2">
         <f>ABS(D2-$F$2)</f>
-        <v>74.400000000000546</v>
+        <v>42.400000000000546</v>
       </c>
       <c r="I2">
         <v>1.9E-2</v>
@@ -1269,8 +1555,12 @@
         <f>L2/M2</f>
         <v>8112.1292893606496</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <f xml:space="preserve"> J2 * K2</f>
+        <v>2.0022E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>2</v>
@@ -1288,16 +1578,16 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G7" si="2">ABS(D3-$F$2)</f>
-        <v>69.599999999999454</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>65.599999999999454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A7" si="3">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>4310</v>
+        <v>4300</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" si="0"/>
@@ -1305,14 +1595,14 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" si="1"/>
-        <v>5172</v>
+        <v>5160</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>21.599999999999454</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>5.5999999999994543</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -1330,13 +1620,13 @@
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>2.4000000000005457</v>
+        <v>6.4000000000005457</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -1354,14 +1644,14 @@
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>24.000000000000909</v>
+        <v>28.000000000000909</v>
       </c>
       <c r="J6">
         <f>N2*F2^2</f>
-        <v>215187372347.68073</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>215521747827.28476</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -1379,7 +1669,89 @@
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>9.5999999999994543</v>
+        <v>5.5999999999994543</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="D11">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F11" s="1">
+        <v>20</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <f>SQRT( ( K2 * C11 )^2 + ( J2 * D11 )^2)</f>
+        <v>1.0005623418858017E-6</v>
+      </c>
+      <c r="B14" s="1">
+        <f>SQRT( ( O2 * B11 )^2 +  ( I2 * A14 )^2 )</f>
+        <v>2.1485489196199374E-8</v>
+      </c>
+      <c r="C14" s="1">
+        <f>SQRT( ( ( -L2 / M2^2 ) * B14 )^2 + ( ( 1 / M2 ) * E11 )^2 )</f>
+        <v>45.816952644872082</v>
+      </c>
+      <c r="D14" s="1">
+        <f>SQRT( (  1)^2 + ( 1 )^2 )</f>
+        <v>1.4142135623730951</v>
       </c>
     </row>
   </sheetData>

--- a/Sprawozdanie 3/Excel.xlsx
+++ b/Sprawozdanie 3/Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Miedź" sheetId="1" r:id="rId1"/>
@@ -251,7 +251,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -259,11 +259,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -274,11 +289,20 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -563,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,16 +601,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -618,17 +642,17 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="9">
         <v>1180</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="8">
         <f>3.6/A2</f>
         <v>3.6</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="9">
         <f>C2*B2</f>
         <v>4248</v>
       </c>
@@ -646,7 +670,7 @@
       <c r="J2">
         <v>1.7950000000000001E-2</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <v>1.8009999999999999</v>
       </c>
       <c r="L2">
@@ -666,18 +690,18 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="7">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="7">
         <v>2160</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="8">
         <f t="shared" ref="C3:C7" si="0">3.6/A3</f>
         <v>1.8</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="7">
         <f t="shared" ref="D3:D7" si="1">C3*B3</f>
         <v>3888</v>
       </c>
@@ -687,18 +711,18 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="7">
         <f t="shared" ref="A4:A7" si="3">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="7">
         <v>3240</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="8">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="7">
         <f t="shared" si="1"/>
         <v>3888</v>
       </c>
@@ -708,18 +732,18 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="7">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="7">
         <v>4280</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="8">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="7">
         <f t="shared" si="1"/>
         <v>3852</v>
       </c>
@@ -732,18 +756,18 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="7">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="7">
         <v>5260</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="8">
         <f t="shared" si="0"/>
         <v>0.72</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="7">
         <f t="shared" si="1"/>
         <v>3787.2</v>
       </c>
@@ -757,18 +781,18 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="7">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="7">
         <v>6200</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="8">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="7">
         <f t="shared" si="1"/>
         <v>3720</v>
       </c>
@@ -845,7 +869,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <f>SQRT( ( ( PI() / 2 ) * J2 * C11 )^2 + ( ( (PI() / 2) * I2 *B11 ) ^2))</f>
         <v>1.8473434664521779E-6</v>
       </c>
@@ -873,7 +897,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,16 +909,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -923,17 +947,17 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="7">
         <v>2440</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="8">
         <f>1.98/A2</f>
         <v>1.98</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="7">
         <f>C2*B2</f>
         <v>4831.2</v>
       </c>
@@ -968,18 +992,18 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="7">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="7">
         <v>4960</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="8">
         <f t="shared" ref="C3:C7" si="0">1.98/A3</f>
         <v>0.99</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="7">
         <f t="shared" ref="D3:D7" si="1">C3*B3</f>
         <v>4910.3999999999996</v>
       </c>
@@ -989,18 +1013,18 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="7">
         <f t="shared" ref="A4:A7" si="3">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="7">
         <v>6840</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="8">
         <f t="shared" si="0"/>
         <v>0.66</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="7">
         <f t="shared" si="1"/>
         <v>4514.4000000000005</v>
       </c>
@@ -1010,18 +1034,18 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="7">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="7">
         <v>9560</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="8">
         <f t="shared" si="0"/>
         <v>0.495</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="7">
         <f t="shared" si="1"/>
         <v>4732.2</v>
       </c>
@@ -1034,18 +1058,18 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="7">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="7">
         <v>11340</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="8">
         <f t="shared" si="0"/>
         <v>0.39600000000000002</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="7">
         <f t="shared" si="1"/>
         <v>4490.6400000000003</v>
       </c>
@@ -1059,18 +1083,18 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="7">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="9">
         <v>12360</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="8">
         <f t="shared" si="0"/>
         <v>0.33</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="9">
         <f t="shared" si="1"/>
         <v>4078.8</v>
       </c>
@@ -1140,7 +1164,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <f>SQRT( ( ( PI() / 2 ) * J2 * C11 )^2 )</f>
         <v>3.8484510006474966E-7</v>
       </c>
@@ -1159,6 +1183,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1167,7 +1192,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1178,16 +1203,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -1216,17 +1241,17 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="7">
         <v>1690</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="8">
         <f>1.98/A2</f>
         <v>1.98</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="7">
         <f>C2*B2</f>
         <v>3346.2</v>
       </c>
@@ -1261,18 +1286,18 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="7">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="7">
         <v>3460</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="8">
         <f t="shared" ref="C3:C7" si="0">1.98/A3</f>
         <v>0.99</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="7">
         <f t="shared" ref="D3:D7" si="1">C3*B3</f>
         <v>3425.4</v>
       </c>
@@ -1282,18 +1307,18 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="7">
         <f t="shared" ref="A4:A7" si="3">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="7">
         <v>5160</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="8">
         <f t="shared" si="0"/>
         <v>0.66</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="7">
         <f t="shared" si="1"/>
         <v>3405.6000000000004</v>
       </c>
@@ -1303,18 +1328,18 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="7">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="7">
         <v>6840</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="8">
         <f t="shared" si="0"/>
         <v>0.495</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="7">
         <f t="shared" si="1"/>
         <v>3385.8</v>
       </c>
@@ -1327,18 +1352,18 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="7">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="7">
         <v>8620</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="8">
         <f t="shared" si="0"/>
         <v>0.39600000000000002</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="7">
         <f t="shared" si="1"/>
         <v>3413.52</v>
       </c>
@@ -1352,18 +1377,18 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="7">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="9">
         <v>12000</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="8">
         <f t="shared" si="0"/>
         <v>0.33</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="9">
         <f t="shared" si="1"/>
         <v>3960</v>
       </c>
@@ -1433,7 +1458,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <f>SQRT( ( ( PI() / 2 ) * J2 * C11 )^2 )</f>
         <v>4.633849164044945E-7</v>
       </c>
@@ -1452,6 +1477,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1459,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1472,16 +1498,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -1513,17 +1539,17 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="7">
         <v>1420</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="8">
         <f>3.6/A2</f>
         <v>3.6</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="7">
         <f>C2*B2</f>
         <v>5112</v>
       </c>
@@ -1561,18 +1587,18 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="7">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="7">
         <v>2900</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="8">
         <f t="shared" ref="C3:C7" si="0">3.6/A3</f>
         <v>1.8</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="7">
         <f t="shared" ref="D3:D7" si="1">C3*B3</f>
         <v>5220</v>
       </c>
@@ -1582,18 +1608,18 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="7">
         <f t="shared" ref="A4:A7" si="3">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="7">
         <v>4300</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="8">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="7">
         <f t="shared" si="1"/>
         <v>5160</v>
       </c>
@@ -1603,18 +1629,18 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="7">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="7">
         <v>5720</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="8">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="7">
         <f t="shared" si="1"/>
         <v>5148</v>
       </c>
@@ -1627,18 +1653,18 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="7">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="7">
         <v>7120</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="8">
         <f t="shared" si="0"/>
         <v>0.72</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="7">
         <f t="shared" si="1"/>
         <v>5126.3999999999996</v>
       </c>
@@ -1652,18 +1678,18 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="7">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="7">
         <v>8600</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="8">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="7">
         <f t="shared" si="1"/>
         <v>5160</v>
       </c>
@@ -1737,7 +1763,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <f>SQRT( ( K2 * C11 )^2 + ( J2 * D11 )^2)</f>
         <v>1.0005623418858017E-6</v>
       </c>
@@ -1756,5 +1782,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Sprawozdanie 3/Excel.xlsx
+++ b/Sprawozdanie 3/Excel.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Miedź" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Mosiądz" sheetId="3" r:id="rId3"/>
     <sheet name="Stal" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="33">
   <si>
     <t>Nr harmonicznej</t>
   </si>
@@ -191,11 +191,14 @@
   <si>
     <t>u(b)</t>
   </si>
+  <si>
+    <t>ucE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -251,7 +254,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -274,11 +277,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -305,9 +319,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -365,7 +384,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -400,7 +419,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -577,7 +596,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -588,12 +607,13 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="15.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="13" max="13" width="13.42578125" customWidth="1"/>
     <col min="14" max="14" width="11.85546875" customWidth="1"/>
@@ -706,7 +726,7 @@
         <v>3888</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G7" si="2">ABS(D3-$F$2)</f>
+        <f t="shared" ref="G3:G8" si="2">ABS(D3-$F$2)</f>
         <v>60.960000000000036</v>
       </c>
     </row>
@@ -806,10 +826,22 @@
         <f>AVERAGE(A2:A7)</f>
         <v>3.5</v>
       </c>
+      <c r="B8" s="1">
+        <f>AVERAGE(B3:B7)</f>
+        <v>4228</v>
+      </c>
       <c r="C8" s="3">
         <f>AVERAGE(C2:C7)</f>
         <v>1.47</v>
       </c>
+      <c r="D8" s="1">
+        <f>AVERAGE(D3:D7)</f>
+        <v>3827.04</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -866,6 +898,9 @@
       </c>
       <c r="D13" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -882,8 +917,12 @@
         <v>152.4997668369445</v>
       </c>
       <c r="D14" s="1">
-        <f>SQRT( (  1)^2 + ( 1 )^2 )</f>
-        <v>1.4142135623730951</v>
+        <f>SQRT( ( B8 * G11 )^2 + ( C8 * F11 )^2 )</f>
+        <v>29.70245754142239</v>
+      </c>
+      <c r="E14" s="10">
+        <f>SQRT( ( D8^2 * C14 )^2 + ( 2 * O2 * D8 * D14 )^2 )</f>
+        <v>2605542161.8615279</v>
       </c>
     </row>
   </sheetData>
@@ -897,7 +936,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,7 +1047,7 @@
         <v>4910.3999999999996</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G7" si="2">ABS(D3-$F$2)</f>
+        <f t="shared" ref="G3:G8" si="2">ABS(D3-$F$2)</f>
         <v>214.63199999999961</v>
       </c>
     </row>
@@ -1101,6 +1140,24 @@
       <c r="G7">
         <f t="shared" si="2"/>
         <v>616.96799999999985</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>AVERAGE(B2:B6)</f>
+        <v>7028</v>
+      </c>
+      <c r="C8" s="11">
+        <f>AVERAGE(C2:C6)</f>
+        <v>0.9042</v>
+      </c>
+      <c r="D8" s="12">
+        <f>AVERAGE(D2:D6)</f>
+        <v>4695.768</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1162,6 +1219,9 @@
       <c r="D13" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="E13" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -1177,8 +1237,12 @@
         <v>59.262666429458498</v>
       </c>
       <c r="D14" s="1">
-        <f>SQRT( (  1)^2 + ( 1 )^2 )</f>
-        <v>1.4142135623730951</v>
+        <f>SQRT( ( B8 * G11 )^2 + ( C8 * F11 )^2 )</f>
+        <v>19.401645291057147</v>
+      </c>
+      <c r="E14" s="10">
+        <f>SQRT( ( D8^2 * C14 )^2 + ( 2 * N2 * D8 * D14 )^2 )</f>
+        <v>1408591649.6879003</v>
       </c>
     </row>
   </sheetData>
@@ -1192,7 +1256,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,7 +1366,7 @@
         <v>3425.4</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G7" si="2">ABS(D3-$F$2)</f>
+        <f t="shared" ref="G3:G8" si="2">ABS(D3-$F$2)</f>
         <v>30.096000000000004</v>
       </c>
     </row>
@@ -1395,6 +1459,24 @@
       <c r="G7">
         <f t="shared" si="2"/>
         <v>564.69599999999991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>AVERAGE(B2:B6)</f>
+        <v>5154</v>
+      </c>
+      <c r="C8" s="11">
+        <f>AVERAGE(C2:C6)</f>
+        <v>0.9042</v>
+      </c>
+      <c r="D8" s="12">
+        <f>AVERAGE(D2:D6)</f>
+        <v>3395.3040000000001</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1456,6 +1538,9 @@
       <c r="D13" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="E13" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -1471,8 +1556,12 @@
         <v>190.72213113758932</v>
       </c>
       <c r="D14" s="1">
-        <f>SQRT( (  1)^2 + ( 1 )^2 )</f>
-        <v>1.4142135623730951</v>
+        <f>SQRT( ( B8 * G11 )^2 + ( C8 * F11 )^2 )</f>
+        <v>18.804115826063185</v>
+      </c>
+      <c r="E14" s="10">
+        <f>SQRT( ( D8^2 * C14 )^2 + ( 2 * N2 * D8 * D14 )^2 )</f>
+        <v>2463563459.3866944</v>
       </c>
     </row>
   </sheetData>
@@ -1486,7 +1575,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="A1:D7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1603,7 +1692,7 @@
         <v>5220</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G7" si="2">ABS(D3-$F$2)</f>
+        <f t="shared" ref="G3:G8" si="2">ABS(D3-$F$2)</f>
         <v>65.599999999999454</v>
       </c>
     </row>
@@ -1696,6 +1785,24 @@
       <c r="G7">
         <f t="shared" si="2"/>
         <v>5.5999999999994543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>AVERAGE(B2:B7)</f>
+        <v>5010</v>
+      </c>
+      <c r="C8" s="11">
+        <f>AVERAGE(C2:C7)</f>
+        <v>1.47</v>
+      </c>
+      <c r="D8" s="12">
+        <f>AVERAGE(D2:D7)</f>
+        <v>5154.4000000000005</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1761,6 +1868,9 @@
       <c r="D13" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="E13" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -1776,8 +1886,12 @@
         <v>45.816952644872082</v>
       </c>
       <c r="D14" s="1">
-        <f>SQRT( (  1)^2 + ( 1 )^2 )</f>
-        <v>1.4142135623730951</v>
+        <f>SQRT( ( B8 * G11 )^2 + ( C8 * F11 )^2 )</f>
+        <v>29.823817663069224</v>
+      </c>
+      <c r="E14" s="10">
+        <f>SQRT( ( D8^2 * C14 )^2 + ( 2 * N2 * D8 * D14 )^2 )</f>
+        <v>2775253386.9761367</v>
       </c>
     </row>
   </sheetData>
